--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -226,18 +226,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -299,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -375,42 +369,55 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -993,10 +1000,10 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
@@ -1090,7 +1097,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1417,30 +1424,30 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="29">
         <v>41009</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="29">
         <v>41000</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27" t="s">
+      <c r="G12" s="31"/>
+      <c r="H12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="24" t="s">
-        <v>15</v>
+      <c r="I12" s="35" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="8"/>
     </row>
@@ -1556,57 +1563,57 @@
       <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="23">
         <v>41001</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="23">
         <v>41014</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31" t="s">
+      <c r="G17" s="25"/>
+      <c r="H17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="I17" s="22" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="23">
         <v>41009</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="23">
         <v>41014</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="25"/>
+      <c r="H18" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="32" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="8"/>

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
   <si>
     <t>Date of Entry</t>
   </si>
@@ -133,9 +133,6 @@
     <t>Maintain" User Requirement Specification - Version 0 1" document</t>
   </si>
   <si>
-    <t>Start working on the Cloud App myApartments</t>
-  </si>
-  <si>
     <t>Learn the enviorment</t>
   </si>
   <si>
@@ -165,6 +162,12 @@
   </si>
   <si>
     <t>Pass Avslut och redovisning [28/5 - 3/6]</t>
+  </si>
+  <si>
+    <t>Start working on the Cloud App mittNyaHem</t>
+  </si>
+  <si>
+    <t>How does Cloud App Studio work?</t>
   </si>
 </sst>
 </file>
@@ -385,12 +388,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -419,6 +416,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1000,10 +1003,10 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
@@ -1096,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>35</v>
@@ -1407,7 +1410,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>21</v>
@@ -1424,29 +1427,29 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="27">
         <v>41009</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="31" t="s">
+      <c r="D12" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="27">
         <v>41000</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31" t="s">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="33" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="8"/>
@@ -1544,8 +1547,8 @@
       <c r="C16" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>38</v>
+      <c r="D16" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>18</v>
@@ -1573,7 +1576,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>35</v>
@@ -1591,7 +1594,7 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
       <c r="B18" s="23">
@@ -1600,20 +1603,20 @@
       <c r="C18" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="34" t="s">
+      <c r="D18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="32" t="s">
         <v>35</v>
       </c>
       <c r="F18" s="23">
         <v>41014</v>
       </c>
       <c r="G18" s="25"/>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="30" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="8"/>
@@ -1629,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>35</v>
@@ -1657,7 +1660,7 @@
         <v>14</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>35</v>
@@ -1685,7 +1688,7 @@
         <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>35</v>
@@ -1713,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>35</v>
@@ -1730,9 +1733,30 @@
       <c r="J22" s="8"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F23" s="14"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="13"/>
+      <c r="A23" s="13">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>41009</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="14">
+        <v>41063</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
   <si>
     <t>Date of Entry</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>How does Cloud App Studio work?</t>
+  </si>
+  <si>
+    <t>Create "project plan" document</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,15 +1763,31 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="9"/>
+      <c r="A24" s="15">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>41009</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="14">
+        <v>41011</v>
+      </c>
       <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
+      <c r="H24" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="8250" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="2" r:id="rId1"/>
     <sheet name="Daily Log" sheetId="1" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
   <si>
     <t>Date of Entry</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>Create "project plan" document</t>
+  </si>
+  <si>
+    <t>Create "MinutesOfMeeting - w15.2" document</t>
+  </si>
+  <si>
+    <t>Create "Burndown Chart" document</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -425,6 +431,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1102,8 +1120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,61 +1530,59 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+    <row r="15" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="23">
         <v>41009</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="14">
-        <v>41011</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
+      <c r="F15" s="23">
+        <v>41014</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+    </row>
+    <row r="16" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="23">
         <v>41009</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="14">
-        <v>41011</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
+      <c r="F16" s="23">
+        <v>41014</v>
+      </c>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
@@ -1791,26 +1807,59 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="9"/>
+      <c r="A25" s="13">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>41012</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="14">
+        <v>41012</v>
+      </c>
       <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
+      <c r="H25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="8"/>
+    <row r="26" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="23">
+        <v>41012</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="23">
+        <v>41014</v>
+      </c>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
   <si>
     <t>Date of Entry</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Create "Burndown Chart" document</t>
+  </si>
+  <si>
+    <t>Create "MinutesOfMeeting - w15.3" document</t>
   </si>
 </sst>
 </file>
@@ -305,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -432,15 +435,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1120,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,31 +1568,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="26">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="27">
         <v>41009</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="27">
         <v>41014</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25" t="s">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>15</v>
+      <c r="I16" s="33" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1834,11 +1845,11 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+    <row r="26" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="B26" s="23">
+      <c r="B26" s="27">
         <v>41012</v>
       </c>
       <c r="C26" s="36" t="s">
@@ -1850,7 +1861,7 @@
       <c r="E26" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="27">
         <v>41014</v>
       </c>
       <c r="G26" s="37"/>
@@ -1858,18 +1869,35 @@
         <v>17</v>
       </c>
       <c r="I26" s="38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="9"/>
+      <c r="A27" s="13">
+        <v>26</v>
+      </c>
+      <c r="B27" s="27">
+        <v>41014</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="27">
+        <v>41015</v>
+      </c>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="11"/>
+      <c r="H27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="180" windowWidth="14355" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="14355" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>Date of Entry</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Action</t>
-  </si>
-  <si>
-    <t>Create "MinutesOfMeeting - w15.1" document</t>
   </si>
   <si>
     <t>Mikael</t>
@@ -88,9 +85,6 @@
 Yes/No</t>
   </si>
   <si>
-    <t>Create Mockup for Android App</t>
-  </si>
-  <si>
     <t>Robin</t>
   </si>
   <si>
@@ -103,43 +97,10 @@
     <t>Amantech</t>
   </si>
   <si>
-    <t>Create GitHub Repository</t>
-  </si>
-  <si>
-    <t>Create "MinutesOfMeeting - w14" document</t>
-  </si>
-  <si>
-    <t>Create "week14" documentation.</t>
-  </si>
-  <si>
-    <t>Create "week15-16" documentation.</t>
-  </si>
-  <si>
-    <t>Create "week17" documentation.</t>
-  </si>
-  <si>
-    <t>Create "Project Daily Log" document</t>
-  </si>
-  <si>
-    <t>Maintain "Project Daily Log" document</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>Create" User Requirement Specification - Version 0 1" document</t>
-  </si>
-  <si>
-    <t>Maintain" User Requirement Specification - Version 0 1" document</t>
-  </si>
-  <si>
     <t>Learn the enviorment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix the GitHub index start page: http://nero2000.github.com/Amantech </t>
-  </si>
-  <si>
-    <t>Create "uppstart" documentation and upload it to HGO.</t>
   </si>
   <si>
     <t xml:space="preserve">Pass  "Val av arbete och uppstart [26/3 - 1/4]"
@@ -164,22 +125,100 @@
     <t>Pass Avslut och redovisning [28/5 - 3/6]</t>
   </si>
   <si>
-    <t>Start working on the Cloud App mittNyaHem</t>
-  </si>
-  <si>
     <t>How does Cloud App Studio work?</t>
   </si>
   <si>
-    <t>Create "project plan" document</t>
-  </si>
-  <si>
-    <t>Create "MinutesOfMeeting - w15.2" document</t>
-  </si>
-  <si>
-    <t>Create "Burndown Chart" document</t>
-  </si>
-  <si>
-    <t>Create "MinutesOfMeeting - w15.3" document</t>
+    <t>US7: Ta fram grundformen för mittNyaHem</t>
+  </si>
+  <si>
+    <t>US1: Create "Project Daily Log" document</t>
+  </si>
+  <si>
+    <t>US1: Create" User Requirement Specification - Version 0 1" document</t>
+  </si>
+  <si>
+    <t>US1: Create GitHub Repository</t>
+  </si>
+  <si>
+    <t>US1: Create "MinutesOfMeeting - w14" document</t>
+  </si>
+  <si>
+    <t>US1: Create "week14" documentation.</t>
+  </si>
+  <si>
+    <t>US1: Create "uppstart" documentation and upload it to HGO.</t>
+  </si>
+  <si>
+    <t>US2: Create Mockup for Android App</t>
+  </si>
+  <si>
+    <t>US3: Start working on the Cloud App mittNyaHem</t>
+  </si>
+  <si>
+    <t>US5: Create Android template</t>
+  </si>
+  <si>
+    <t>Scrum poker planning</t>
+  </si>
+  <si>
+    <t>US6: Break down requirments</t>
+  </si>
+  <si>
+    <t>Us8: Ta fram sorterbar vy för bostäder i mittNyaHem</t>
+  </si>
+  <si>
+    <t>US9: Ta fram team i mittNyaHem</t>
+  </si>
+  <si>
+    <t>US10: Utveckla en native Androidapp som konsumerar och visar information från Mitt Nya Hem.</t>
+  </si>
+  <si>
+    <t>US11: Open Id inloggning via Android</t>
+  </si>
+  <si>
+    <t>US12:  Använd OAUTH för att använda Google Docs som den påloggade användaren</t>
+  </si>
+  <si>
+    <t>US13: Skapa en Cloud App Studio app anpassad för Apple Retina skärmar</t>
+  </si>
+  <si>
+    <t>US14: Maintain "Project Daily Log" document</t>
+  </si>
+  <si>
+    <t>US14: Maintain" User Requirement Specification - Version 0 1" document</t>
+  </si>
+  <si>
+    <t>US14: Create "MinutesOfMeeting - w15.1" document</t>
+  </si>
+  <si>
+    <t>US14: Create "week15-16" documentation.</t>
+  </si>
+  <si>
+    <t>US14: Create "week17" documentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US15: Fix the GitHub index start page: http://nero2000.github.com/Amantech </t>
+  </si>
+  <si>
+    <t>US14: Create "project plan" document</t>
+  </si>
+  <si>
+    <t>US14: Create "MinutesOfMeeting - w15.2" document</t>
+  </si>
+  <si>
+    <t>US1: Create "Burndown Chart" document</t>
+  </si>
+  <si>
+    <t>US14: Documentation update</t>
+  </si>
+  <si>
+    <t>US14: Create "MinutesOfMeeting - w15.5" document</t>
+  </si>
+  <si>
+    <t>US14: Create "MinutesOfMeeting - w15.4" document</t>
+  </si>
+  <si>
+    <t>US14: Create "MinutesOfMeeting - w15.3" document</t>
   </si>
 </sst>
 </file>
@@ -189,7 +228,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +275,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -305,8 +359,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -332,10 +387,6 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -417,11 +468,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -429,12 +475,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -455,8 +495,22 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
@@ -1035,10 +1089,10 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
@@ -1048,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1070,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1081,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1092,7 +1146,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1131,33 +1185,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="44.140625" style="8" customWidth="1"/>
     <col min="5" max="5" width="14" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="12" customWidth="1"/>
     <col min="7" max="7" width="51" style="8" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="13"/>
+    <col min="10" max="10" width="9.140625" style="12"/>
     <col min="11" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -1166,181 +1220,181 @@
       <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>41001</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="C2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="13">
         <v>41003</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>41001</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="C3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="13">
         <v>41057</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>41001</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="C4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="13">
         <v>41003</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>41001</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13">
         <v>41019</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>41001</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13">
+        <v>41009</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>41001</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="14">
-        <v>41009</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
-        <v>6</v>
-      </c>
-      <c r="B7" s="14">
-        <v>41001</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="E7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13">
         <v>41003</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="7" t="s">
@@ -1348,27 +1402,27 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>41001</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="C8" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="13">
         <v>41003</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20" t="s">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="7" t="s">
@@ -1377,26 +1431,26 @@
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>41001</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="14">
+        <v>40</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="13">
         <v>41003</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -1404,26 +1458,26 @@
       </c>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>41009</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>41010</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="7" t="s">
@@ -1432,274 +1486,273 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>41009</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="14">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13">
         <v>41010</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+      <c r="A12" s="25">
         <v>11</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26">
         <v>41009</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="D12" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="26">
         <v>41000</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>41009</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="13">
+        <v>41010</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13">
+        <v>41009</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="13">
+        <v>41010</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22">
+        <v>41009</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="22">
+        <v>41014</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26">
+        <v>41009</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="26">
+        <v>41014</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22">
+        <v>41001</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="22">
+        <v>41014</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26">
+        <v>41009</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="26">
+        <v>41014</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13">
+        <v>41009</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="13">
+        <v>41028</v>
+      </c>
+      <c r="G19" s="19"/>
+      <c r="H19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13">
+        <v>41009</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="14">
-        <v>41010</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>13</v>
-      </c>
-      <c r="B14" s="14">
-        <v>41009</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="14">
-        <v>41010</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:10" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="23">
-        <v>41009</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="23">
-        <v>41014</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27">
-        <v>41009</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="27">
-        <v>41014</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23">
-        <v>41001</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="23">
-        <v>41014</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23">
-        <v>41009</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="23">
-        <v>41014</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14">
-        <v>41009</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="14">
-        <v>41028</v>
-      </c>
-      <c r="G19" s="20"/>
-      <c r="H19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14">
-        <v>41009</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>44</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="14">
+        <v>26</v>
+      </c>
+      <c r="F20" s="13">
         <v>41042</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I20" s="7" t="s">
@@ -1708,26 +1761,26 @@
       <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="A21" s="12">
         <v>20</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>41009</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="14">
+        <v>26</v>
+      </c>
+      <c r="F21" s="13">
         <v>41056</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
+      <c r="G21" s="15"/>
+      <c r="H21" s="15" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="7" t="s">
@@ -1736,865 +1789,1091 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>41009</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="13">
+        <v>41063</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13">
+        <v>41009</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="13">
+        <v>41063</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13">
+        <v>41009</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="13">
+        <v>41011</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="13">
+        <v>41012</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="13">
+        <v>41012</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>25</v>
+      </c>
+      <c r="B26" s="26">
+        <v>41012</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="26">
+        <v>41014</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26">
+        <v>41014</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="26">
+        <v>41015</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="26">
+        <v>41015</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="26">
+        <v>41016</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="26">
+        <v>41018</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="26">
+        <v>41018</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="13">
+        <v>41022</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="13">
+        <v>41022</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="26">
+        <v>41018</v>
+      </c>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E35" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="26">
+        <v>41019</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
         <v>35</v>
       </c>
-      <c r="F22" s="14">
-        <v>41063</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="13" t="s">
+      <c r="B36" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14">
-        <v>41009</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="14">
-        <v>41063</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="13" t="s">
+      <c r="E37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="13"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14">
-        <v>41009</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="14">
-        <v>41011</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14">
-        <v>41012</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8" t="s">
+      <c r="E38" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="16"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="14">
-        <v>41012</v>
-      </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:10" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
-      <c r="B26" s="27">
-        <v>41012</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="37" t="s">
+      <c r="E39" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="27">
-        <v>41014</v>
-      </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
+      <c r="E40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="27">
-        <v>41014</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="8" t="s">
+      <c r="F40" s="13"/>
+      <c r="H40" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="26">
+        <v>41017</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="27">
-        <v>41015</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="8"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C35" s="17"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="17"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F40" s="14"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F41" s="14"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="13"/>
+      <c r="E41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="H41" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="8"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="18"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="8"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="8"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="8"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="17"/>
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="8"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="18"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="39"/>
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="18"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="39"/>
       <c r="J52" s="8"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="18"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="39"/>
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="18"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="39"/>
       <c r="J54" s="8"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="18"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="39"/>
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="18"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="39"/>
       <c r="J56" s="8"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="18"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="17"/>
       <c r="J58" s="8"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="17"/>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="17"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="17"/>
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="17"/>
       <c r="J62" s="8"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="17"/>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="17"/>
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="17"/>
       <c r="J66" s="8"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="17"/>
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="17"/>
       <c r="J68" s="8"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="17"/>
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="18"/>
+      <c r="A70" s="14"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="17"/>
       <c r="J70" s="8"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="17"/>
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="17"/>
       <c r="J72" s="8"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="17"/>
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="17"/>
       <c r="J74" s="8"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="17"/>
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="17"/>
       <c r="J76" s="8"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="17"/>
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>70</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="20"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="17"/>
       <c r="J78" s="8"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>71</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="17"/>
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="15">
+      <c r="A80" s="14">
         <v>72</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="17"/>
       <c r="J80" s="8"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>73</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="17"/>
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>74</v>
       </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="20"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="17"/>
       <c r="J82" s="8"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>75</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="17"/>
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>76</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="20"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="17"/>
       <c r="J84" s="8"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>77</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="17"/>
       <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>78</v>
       </c>
-      <c r="F86" s="14"/>
-      <c r="I86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="I86" s="12"/>
       <c r="J86" s="8"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>79</v>
       </c>
-      <c r="F87" s="14"/>
-      <c r="I87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="I87" s="12"/>
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>80</v>
       </c>
-      <c r="F88" s="14"/>
-      <c r="I88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="I88" s="12"/>
       <c r="J88" s="8"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>81</v>
       </c>
-      <c r="F89" s="14"/>
-      <c r="I89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="I89" s="12"/>
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>82</v>
       </c>
-      <c r="F90" s="14"/>
-      <c r="I90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="I90" s="12"/>
       <c r="J90" s="8"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>83</v>
       </c>
-      <c r="F91" s="14"/>
-      <c r="I91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="I91" s="12"/>
       <c r="J91" s="8"/>
     </row>
   </sheetData>

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
   <si>
     <t>Projects Daily Log</t>
   </si>
@@ -125,8 +125,7 @@
     <t>Event</t>
   </si>
   <si>
-    <t>Pass  "Val av arbete och uppstart [26/3 - 1/4]"
-</t>
+    <t>Pass  "Val av arbete och uppstart [26/3 - 1/4]"</t>
   </si>
   <si>
     <t>US14: Create "week15-16" documentation.</t>
@@ -147,22 +146,19 @@
     <t>Jesper</t>
   </si>
   <si>
-    <t>US15: Fix the GitHub index start page: http://nero2000.github.com/Amantech </t>
+    <t>US15: Fix the GitHub index start page: http://nero2000.github.com/Amantech</t>
   </si>
   <si>
     <t>Pass Sprint 1 [2/4 - 15/4]</t>
   </si>
   <si>
-    <t>Pass Sprint 2 [16/4 - 29/4]
-</t>
-  </si>
-  <si>
-    <t>Pass Sprint 3 [30/4 - 13/5]
-</t>
-  </si>
-  <si>
-    <t>Pass Sprint 4 [14/5 - 27/5]
-</t>
+    <t>Pass Sprint 2 [16/4 - 29/4]</t>
+  </si>
+  <si>
+    <t>Pass Sprint 3 [30/4 - 13/5]</t>
+  </si>
+  <si>
+    <t>Pass Sprint 4 [14/5 - 27/5]</t>
   </si>
   <si>
     <t>Pass Avslut och redovisning [28/5 - 3/6]</t>
@@ -225,7 +221,13 @@
     <t>Setup baseproject, git structure</t>
   </si>
   <si>
-    <t>YES</t>
+    <t>US14 :Create ”Base Android Activitys” Android</t>
+  </si>
+  <si>
+    <t>US15:Create /refactoring på Android login Android</t>
+  </si>
+  <si>
+    <t>US16:Create ”Class Owerview” Android/ClassDiagram</t>
   </si>
 </sst>
 </file>
@@ -237,7 +239,7 @@
     <numFmt formatCode="YYYY/MM/DD" numFmtId="165"/>
     <numFmt formatCode="DD/MM/YYYY" numFmtId="166"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
@@ -294,14 +296,6 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
-      <color rgb="000000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
       <color rgb="00666666"/>
       <sz val="8.8"/>
     </font>
@@ -336,7 +330,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -360,12 +354,8 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="22">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
@@ -400,22 +390,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="false"/>
@@ -441,38 +415,29 @@
       <protection hidden="false" locked="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="false"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="20">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="8" customBuiltin="false" name="*unknown*" xfId="15"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -542,15 +507,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1494000</xdr:colOff>
+      <xdr:colOff>1521000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:colOff>151200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -565,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4337280" y="172440"/>
-          <a:ext cx="2348640" cy="835200"/>
+          <a:off x="4393440" y="163440"/>
+          <a:ext cx="2385720" cy="621720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,11 +555,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.7450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="52.9529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="31.7450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.4862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="32.0705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="3">
@@ -712,21 +677,21 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I43" activeCellId="0" pane="topLeft" sqref="I43"/>
+      <selection activeCell="D44" activeCellId="0" pane="topLeft" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="6.34901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="14.7137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="44.5882352941177"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.1450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.4235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="51.5176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="18.0352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="8.50980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="9.23529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="10" width="9.23529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="6.41176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.9686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="45.0392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.2901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.556862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="52.0392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="18.2156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="9.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="10" width="9.32549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="1" s="10">
@@ -1018,30 +983,29 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="12" s="10">
-      <c r="A12" s="12" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12" s="10">
+      <c r="A12" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="9" t="n">
         <v>41009</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="13" t="n">
+      <c r="F12" s="9" t="n">
         <v>41000</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="12" t="s">
+      <c r="H12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1097,112 +1061,112 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15" s="18">
-      <c r="A15" s="16" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15" s="14">
+      <c r="A15" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="13" t="n">
         <v>41009</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="F15" s="13" t="n">
         <v>41014</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="16" t="s">
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16" s="15">
-      <c r="A16" s="12" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16" s="10">
+      <c r="A16" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="9" t="n">
         <v>41009</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="13" t="n">
+      <c r="F16" s="9" t="n">
         <v>41014</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="H16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="17" s="10">
-      <c r="A17" s="16" t="n">
+      <c r="A17" s="12" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="13" t="n">
         <v>41001</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="C17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="17" t="n">
+      <c r="F17" s="13" t="n">
         <v>41014</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="16" t="s">
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="18" s="15">
-      <c r="A18" s="12" t="n">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="18" s="10">
+      <c r="A18" s="8" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="n">
+      <c r="B18" s="9" t="n">
         <v>41009</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="13" t="n">
+      <c r="F18" s="9" t="n">
         <v>41014</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="19" s="10">
+      <c r="H18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="19" s="10">
       <c r="A19" s="8" t="n">
         <v>18</v>
       </c>
@@ -1228,7 +1192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="20" s="10">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20" s="10">
       <c r="A20" s="8" t="n">
         <v>19</v>
       </c>
@@ -1254,7 +1218,7 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="21" s="10">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21" s="10">
       <c r="A21" s="8" t="n">
         <v>20</v>
       </c>
@@ -1333,29 +1297,29 @@
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="24" s="10">
-      <c r="A24" s="19" t="n">
+      <c r="A24" s="15" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="n">
         <v>41009</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F24" s="9" t="n">
         <v>41011</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="19" t="s">
+      <c r="G24" s="17"/>
+      <c r="H24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1366,50 +1330,50 @@
       <c r="B25" s="9" t="n">
         <v>41012</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="17" t="s">
         <v>20</v>
       </c>
       <c r="F25" s="9" t="n">
         <v>41012</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26" s="15">
-      <c r="A26" s="12" t="n">
+      <c r="G25" s="17"/>
+      <c r="H25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26" s="10">
+      <c r="A26" s="8" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="n">
+      <c r="B26" s="9" t="n">
         <v>41012</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="13" t="n">
+      <c r="F26" s="9" t="n">
         <v>41014</v>
       </c>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="24" t="s">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1417,26 +1381,26 @@
       <c r="A27" s="8" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="n">
+      <c r="B27" s="9" t="n">
         <v>41014</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="13" t="n">
+      <c r="F27" s="9" t="n">
         <v>41015</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="19" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1444,26 +1408,26 @@
       <c r="A28" s="8" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="n">
+      <c r="B28" s="9" t="n">
         <v>41015</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="13" t="n">
+      <c r="F28" s="9" t="n">
         <v>41016</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="19" t="s">
+      <c r="G28" s="17"/>
+      <c r="H28" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1471,26 +1435,26 @@
       <c r="A29" s="8" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="n">
+      <c r="B29" s="9" t="n">
         <v>41017</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="13" t="n">
+      <c r="F29" s="9" t="n">
         <v>41018</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="19" t="s">
+      <c r="G29" s="17"/>
+      <c r="H29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1498,50 +1462,50 @@
       <c r="A30" s="8" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="n">
+      <c r="B30" s="9" t="n">
         <v>41017</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="21" t="s">
+      <c r="C30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="13" t="n">
+      <c r="F30" s="9" t="n">
         <v>41018</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="31" s="10">
+      <c r="G30" s="17"/>
+      <c r="H30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="31">
       <c r="A31" s="8" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="19"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="10"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="32" s="10">
       <c r="A32" s="8" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="9" t="n">
         <v>41017</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -1561,10 +1525,10 @@
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="33" s="10">
-      <c r="A33" s="19" t="n">
+      <c r="A33" s="15" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="n">
+      <c r="B33" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1590,7 +1554,7 @@
       <c r="A34" s="8" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="n">
+      <c r="B34" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1602,7 +1566,7 @@
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="13" t="n">
+      <c r="F34" s="9" t="n">
         <v>41018</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -1616,7 +1580,7 @@
       <c r="A35" s="8" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="n">
+      <c r="B35" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -1628,7 +1592,7 @@
       <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="13" t="n">
+      <c r="F35" s="9" t="n">
         <v>41019</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -1642,7 +1606,7 @@
       <c r="A36" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="n">
+      <c r="B36" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1666,7 +1630,7 @@
       <c r="A37" s="8" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="n">
+      <c r="B37" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -1686,11 +1650,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="38" s="10">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="38" s="10">
       <c r="A38" s="8" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="n">
+      <c r="B38" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -1714,7 +1678,7 @@
       <c r="A39" s="8" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="n">
+      <c r="B39" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -1738,7 +1702,7 @@
       <c r="A40" s="8" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="n">
+      <c r="B40" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -1762,7 +1726,7 @@
       <c r="A41" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="n">
+      <c r="B41" s="9" t="n">
         <v>41017</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -1787,7 +1751,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="n">
-        <v>41748</v>
+        <v>41018</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
@@ -1800,27 +1764,83 @@
       </c>
       <c r="F42" s="9"/>
       <c r="H42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="43" s="10">
+      <c r="A43" s="8" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="n">
+        <v>41028</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I42" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="43">
+      <c r="E43" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="F43" s="9"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="44">
-      <c r="A44" s="19"/>
+      <c r="H43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="44" s="10">
+      <c r="A44" s="15" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="n">
+        <v>41028</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="F44" s="9"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="45">
+      <c r="H44" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="45" s="10">
+      <c r="A45" s="8" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="n">
+        <v>41028</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="F45" s="9"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="10"/>
+      <c r="H45" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="46">
       <c r="F46" s="9"/>
@@ -1848,75 +1868,75 @@
       <c r="J50" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="51">
-      <c r="B51" s="25"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="25"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21"/>
       <c r="J51" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="52">
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="25"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="21"/>
       <c r="J52" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="53">
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="25"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="21"/>
       <c r="J53" s="10"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="54" s="10">
-      <c r="A54" s="19"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="25"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="21"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="55">
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="25"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="21"/>
       <c r="J55" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="56">
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="25"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
       <c r="J56" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="57">
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="20"/>
       <c r="J57" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="58">
@@ -1980,7 +2000,7 @@
       <c r="J69" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="70">
-      <c r="A70" s="19"/>
+      <c r="A70" s="15"/>
       <c r="F70" s="9"/>
       <c r="I70" s="8"/>
       <c r="J70" s="10"/>
@@ -2037,7 +2057,7 @@
       <c r="J79" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="80">
-      <c r="A80" s="19" t="n">
+      <c r="A80" s="15" t="n">
         <v>72</v>
       </c>
       <c r="F80" s="9"/>
@@ -2155,7 +2175,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35720" windowHeight="23720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Daily Log" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Project Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily Log" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -221,83 +225,67 @@
     <t>Setup baseproject, git structure</t>
   </si>
   <si>
-    <t>US14 :Create ”Base Android Activitys” Android</t>
-  </si>
-  <si>
     <t>US15:Create /refactoring på Android login Android</t>
   </si>
   <si>
     <t>US16:Create ”Class Owerview” Android/ClassDiagram</t>
+  </si>
+  <si>
+    <t>US14 :Create ”Base Android Activities” Android</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="YYYY/MM/DD" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00666666"/>
-      <sz val="8.8"/>
     </font>
   </fonts>
   <fills count="3">
@@ -309,136 +297,117 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -497,13 +466,21 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -519,11 +496,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -543,158 +520,462 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C18" activeCellId="0" pane="topLeft" sqref="C18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.84705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.4862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="32.0705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.84705882352941"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+    <row r="3" spans="1:5" ht="20">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="20">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="20">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="20">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="8">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:5" ht="30" customHeight="1">
+      <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="9">
-      <c r="A9" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1">
+      <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>41001</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="10">
-      <c r="A10" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1">
+      <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="11">
-      <c r="A11" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1">
+      <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="12">
-      <c r="A12" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1">
+      <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK91"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D44" activeCellId="0" pane="topLeft" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="14.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.9686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="45.0392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.556862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="52.0392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="18.2156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="9.32549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="10" width="9.32549019607843"/>
+    <col min="1" max="1" width="10.83203125" style="8"/>
+    <col min="2" max="3" width="10.83203125" style="9"/>
+    <col min="4" max="5" width="10.83203125" style="10"/>
+    <col min="6" max="6" width="10.83203125" style="8"/>
+    <col min="7" max="9" width="10.83203125" style="10"/>
+    <col min="10" max="10" width="10.83203125" style="8"/>
+    <col min="11" max="1025" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="1" s="10">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="56">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -723,11 +1004,11 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2" s="10">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:9" s="10" customFormat="1" ht="56">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="9">
         <v>41001</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -739,7 +1020,7 @@
       <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="9">
         <v>41003</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -749,11 +1030,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3" s="10">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="70">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="9">
         <v>41001</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -765,7 +1046,7 @@
       <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="9">
         <v>41057</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -775,11 +1056,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="4" s="10">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="112">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="9">
         <v>41001</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -791,7 +1072,7 @@
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="9">
         <v>41003</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -801,11 +1082,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="5" s="10">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="126">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>41001</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -817,7 +1098,7 @@
       <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="9">
         <v>41019</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -827,11 +1108,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6" s="10">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="28">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="9">
         <v>41001</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -843,7 +1124,7 @@
       <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>41009</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -853,11 +1134,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7" s="10">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="42">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="9">
         <v>41001</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -869,7 +1150,7 @@
       <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>41003</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -879,11 +1160,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="8" s="10">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="70">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="9">
         <v>41001</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -895,7 +1176,7 @@
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>41003</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -905,11 +1186,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9" s="10">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="56">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="9">
         <v>41001</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -921,7 +1202,7 @@
       <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="9">
         <v>41003</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -931,11 +1212,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="10" s="10">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="84">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="9">
         <v>41009</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -947,7 +1228,7 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>41010</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -957,11 +1238,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="11" s="10">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="84">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="9">
         <v>41009</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -973,7 +1254,7 @@
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="9">
         <v>41010</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -983,11 +1264,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12" s="10">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="56">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9">
         <v>41009</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -999,7 +1280,7 @@
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>41000</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1009,11 +1290,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13" s="10">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="84">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="9">
         <v>41009</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1025,7 +1306,7 @@
       <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="9">
         <v>41010</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -1035,11 +1316,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="14" s="10">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="70">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="9">
         <v>41009</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1051,7 +1332,7 @@
       <c r="E14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>41010</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -1061,11 +1342,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15" s="14">
-      <c r="A15" s="12" t="n">
+    <row r="15" spans="1:9" s="14" customFormat="1" ht="42">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="13">
         <v>41009</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1077,7 +1358,7 @@
       <c r="E15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="13">
         <v>41014</v>
       </c>
       <c r="H15" s="14" t="s">
@@ -1087,11 +1368,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16" s="10">
-      <c r="A16" s="8" t="n">
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="70">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>41009</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1103,7 +1384,7 @@
       <c r="E16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="9">
         <v>41014</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -1113,11 +1394,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="17" s="10">
-      <c r="A17" s="12" t="n">
+    <row r="17" spans="1:10" s="10" customFormat="1" ht="112">
+      <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="13">
         <v>41001</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1129,7 +1410,7 @@
       <c r="E17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="13">
         <v>41014</v>
       </c>
       <c r="G17" s="14"/>
@@ -1140,11 +1421,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="18" s="10">
-      <c r="A18" s="8" t="n">
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="28">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>41009</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1156,7 +1437,7 @@
       <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="9">
         <v>41014</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -1166,11 +1447,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="19" s="10">
-      <c r="A19" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="n">
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="28">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
         <v>41009</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1182,7 +1463,7 @@
       <c r="E19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="9">
         <v>41028</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -1192,11 +1473,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20" s="10">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:10" s="10" customFormat="1" ht="28">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="9">
         <v>41009</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1208,7 +1489,7 @@
       <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="9">
         <v>41042</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -1218,11 +1499,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21" s="10">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="28">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="9">
         <v>41009</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1234,7 +1515,7 @@
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="9">
         <v>41056</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -1244,11 +1525,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22" s="10">
-      <c r="A22" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="n">
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="56">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
         <v>41009</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1260,7 +1541,7 @@
       <c r="E22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="9">
         <v>41063</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -1270,11 +1551,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="23" s="10">
-      <c r="A23" s="8" t="n">
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="56">
+      <c r="A23" s="8">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="n">
+      <c r="B23" s="9">
         <v>41009</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1286,7 +1567,7 @@
       <c r="E23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="9">
         <v>41063</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -1296,11 +1577,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="24" s="10">
-      <c r="A24" s="15" t="n">
+    <row r="24" spans="1:10" s="10" customFormat="1" ht="70">
+      <c r="A24" s="15">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="9">
         <v>41009</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -1312,7 +1593,7 @@
       <c r="E24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="9">
         <v>41011</v>
       </c>
       <c r="G24" s="17"/>
@@ -1323,11 +1604,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="25" s="10">
-      <c r="A25" s="8" t="n">
+    <row r="25" spans="1:10" s="10" customFormat="1" ht="84">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="9">
         <v>41012</v>
       </c>
       <c r="C25" s="16" t="s">
@@ -1339,7 +1620,7 @@
       <c r="E25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="9">
         <v>41012</v>
       </c>
       <c r="G25" s="17"/>
@@ -1350,11 +1631,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26" s="10">
-      <c r="A26" s="8" t="n">
+    <row r="26" spans="1:10" s="10" customFormat="1" ht="56">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="9">
         <v>41012</v>
       </c>
       <c r="C26" s="16" t="s">
@@ -1366,7 +1647,7 @@
       <c r="E26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="9">
         <v>41014</v>
       </c>
       <c r="G26" s="17"/>
@@ -1377,11 +1658,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="27" s="10">
-      <c r="A27" s="8" t="n">
+    <row r="27" spans="1:10" s="10" customFormat="1" ht="84">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="9">
         <v>41014</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -1393,7 +1674,7 @@
       <c r="E27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="9">
         <v>41015</v>
       </c>
       <c r="G27" s="17"/>
@@ -1404,11 +1685,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28" s="10">
-      <c r="A28" s="8" t="n">
+    <row r="28" spans="1:10" s="10" customFormat="1" ht="84">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="9">
         <v>41015</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -1420,7 +1701,7 @@
       <c r="E28" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="9">
         <v>41016</v>
       </c>
       <c r="G28" s="17"/>
@@ -1431,11 +1712,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="29" s="10">
-      <c r="A29" s="8" t="n">
+    <row r="29" spans="1:10" s="10" customFormat="1" ht="84">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="9">
         <v>41017</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -1447,7 +1728,7 @@
       <c r="E29" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="9">
         <v>41018</v>
       </c>
       <c r="G29" s="17"/>
@@ -1458,11 +1739,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="30" s="10">
-      <c r="A30" s="8" t="n">
+    <row r="30" spans="1:10" s="10" customFormat="1" ht="42">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="9">
         <v>41017</v>
       </c>
       <c r="C30" s="16" t="s">
@@ -1474,7 +1755,7 @@
       <c r="E30" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="9">
         <v>41018</v>
       </c>
       <c r="G30" s="17"/>
@@ -1485,8 +1766,8 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="31">
-      <c r="A31" s="8" t="n">
+    <row r="31" spans="1:10" ht="14">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
       <c r="C31" s="16"/>
@@ -1498,11 +1779,11 @@
       <c r="I31" s="15"/>
       <c r="J31" s="10"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="32" s="10">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:10" s="10" customFormat="1" ht="42">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="9">
         <v>41017</v>
       </c>
       <c r="C32" s="16" t="s">
@@ -1514,7 +1795,7 @@
       <c r="E32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="9">
         <v>41022</v>
       </c>
       <c r="H32" s="10" t="s">
@@ -1524,11 +1805,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="33" s="10">
-      <c r="A33" s="15" t="n">
+    <row r="33" spans="1:10" s="10" customFormat="1" ht="56">
+      <c r="A33" s="15">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="9">
         <v>41017</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1540,7 +1821,7 @@
       <c r="E33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="9">
         <v>41022</v>
       </c>
       <c r="H33" s="10" t="s">
@@ -1550,11 +1831,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="34" s="10">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:10" s="10" customFormat="1" ht="28">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="9">
         <v>41017</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1566,7 +1847,7 @@
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="9">
         <v>41018</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -1576,11 +1857,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="35" s="10">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:10" s="10" customFormat="1" ht="42">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="9">
         <v>41017</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -1592,7 +1873,7 @@
       <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="9">
         <v>41019</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -1602,11 +1883,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="36" s="10">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:10" s="10" customFormat="1" ht="70">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="9">
         <v>41017</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1626,11 +1907,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="37" s="10">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:10" s="10" customFormat="1" ht="42">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="9">
         <v>41017</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -1650,11 +1931,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="38" s="10">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:10" s="10" customFormat="1" ht="140">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="9">
         <v>41017</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -1674,11 +1955,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="39" s="10">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:10" s="10" customFormat="1" ht="42">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="9">
         <v>41017</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -1698,11 +1979,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="40" s="10">
-      <c r="A40" s="8" t="n">
+    <row r="40" spans="1:10" s="10" customFormat="1" ht="112">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="9">
         <v>41017</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -1722,11 +2003,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="41" s="10">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:10" s="10" customFormat="1" ht="98">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="9">
         <v>41017</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -1746,11 +2027,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="42" s="10">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:10" s="10" customFormat="1" ht="42">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="9">
         <v>41018</v>
       </c>
       <c r="C42" s="9" t="s">
@@ -1770,18 +2051,18 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="43" s="10">
-      <c r="A43" s="8" t="n">
+    <row r="43" spans="1:10" s="10" customFormat="1" ht="84">
+      <c r="A43" s="8">
         <v>42</v>
       </c>
-      <c r="B43" s="9" t="n">
+      <c r="B43" s="9">
         <v>41028</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>41</v>
@@ -1794,18 +2075,18 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="44" s="10">
-      <c r="A44" s="15" t="n">
+    <row r="44" spans="1:10" s="10" customFormat="1" ht="70">
+      <c r="A44" s="15">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="9">
         <v>41028</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>39</v>
@@ -1818,18 +2099,18 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="45" s="10">
-      <c r="A45" s="8" t="n">
+    <row r="45" spans="1:10" s="10" customFormat="1" ht="70">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="9">
         <v>41028</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>24</v>
@@ -1842,32 +2123,32 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="46">
+    <row r="46" spans="1:10" ht="14">
       <c r="F46" s="9"/>
       <c r="I46" s="8"/>
       <c r="J46" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="47">
+    <row r="47" spans="1:10" ht="14">
       <c r="F47" s="9"/>
       <c r="I47" s="8"/>
       <c r="J47" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="48">
+    <row r="48" spans="1:10" ht="14">
       <c r="F48" s="9"/>
       <c r="I48" s="8"/>
       <c r="J48" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="49">
+    <row r="49" spans="1:10" ht="14">
       <c r="F49" s="9"/>
       <c r="I49" s="8"/>
       <c r="J49" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="50">
+    <row r="50" spans="1:10" ht="14">
       <c r="F50" s="9"/>
       <c r="I50" s="8"/>
       <c r="J50" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="51">
+    <row r="51" spans="1:10" ht="14">
       <c r="B51" s="18"/>
       <c r="C51" s="19"/>
       <c r="D51" s="20"/>
@@ -1878,7 +2159,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="52">
+    <row r="52" spans="1:10" ht="14">
       <c r="B52" s="18"/>
       <c r="C52" s="19"/>
       <c r="D52" s="20"/>
@@ -1889,7 +2170,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="53">
+    <row r="53" spans="1:10" ht="14">
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20"/>
@@ -1900,7 +2181,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="10"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="54" s="10">
+    <row r="54" spans="1:10" s="10" customFormat="1" ht="14">
       <c r="A54" s="15"/>
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
@@ -1911,7 +2192,7 @@
       <c r="H54" s="20"/>
       <c r="I54" s="21"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="55">
+    <row r="55" spans="1:10" ht="14">
       <c r="B55" s="18"/>
       <c r="C55" s="19"/>
       <c r="D55" s="20"/>
@@ -1922,7 +2203,7 @@
       <c r="I55" s="21"/>
       <c r="J55" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="56">
+    <row r="56" spans="1:10" ht="14">
       <c r="B56" s="18"/>
       <c r="C56" s="19"/>
       <c r="D56" s="20"/>
@@ -1933,219 +2214,219 @@
       <c r="I56" s="21"/>
       <c r="J56" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="57">
+    <row r="57" spans="1:10" ht="14">
       <c r="B57" s="18"/>
       <c r="C57" s="19"/>
       <c r="D57" s="20"/>
       <c r="J57" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="58">
+    <row r="58" spans="1:10" ht="14">
       <c r="F58" s="9"/>
       <c r="I58" s="8"/>
       <c r="J58" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="59">
+    <row r="59" spans="1:10" ht="14">
       <c r="F59" s="9"/>
       <c r="I59" s="8"/>
       <c r="J59" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="60">
+    <row r="60" spans="1:10" ht="14">
       <c r="F60" s="9"/>
       <c r="I60" s="8"/>
       <c r="J60" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="61">
+    <row r="61" spans="1:10" ht="14">
       <c r="F61" s="9"/>
       <c r="I61" s="8"/>
       <c r="J61" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="62">
+    <row r="62" spans="1:10" ht="14">
       <c r="F62" s="9"/>
       <c r="I62" s="8"/>
       <c r="J62" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="63">
+    <row r="63" spans="1:10" ht="14">
       <c r="F63" s="9"/>
       <c r="I63" s="8"/>
       <c r="J63" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="64">
+    <row r="64" spans="1:10" ht="14">
       <c r="F64" s="9"/>
       <c r="I64" s="8"/>
       <c r="J64" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="65">
+    <row r="65" spans="1:10" ht="14">
       <c r="F65" s="9"/>
       <c r="I65" s="8"/>
       <c r="J65" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="66">
+    <row r="66" spans="1:10" ht="14">
       <c r="F66" s="9"/>
       <c r="I66" s="8"/>
       <c r="J66" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="67">
+    <row r="67" spans="1:10" ht="14">
       <c r="F67" s="9"/>
       <c r="I67" s="8"/>
       <c r="J67" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="68">
+    <row r="68" spans="1:10" ht="14">
       <c r="F68" s="9"/>
       <c r="I68" s="8"/>
       <c r="J68" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="69">
+    <row r="69" spans="1:10" ht="14">
       <c r="F69" s="9"/>
       <c r="I69" s="8"/>
       <c r="J69" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="70">
+    <row r="70" spans="1:10" ht="14">
       <c r="A70" s="15"/>
       <c r="F70" s="9"/>
       <c r="I70" s="8"/>
       <c r="J70" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="71">
+    <row r="71" spans="1:10" ht="14">
       <c r="F71" s="9"/>
       <c r="I71" s="8"/>
       <c r="J71" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="72">
+    <row r="72" spans="1:10" ht="14">
       <c r="F72" s="9"/>
       <c r="I72" s="8"/>
       <c r="J72" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="73">
+    <row r="73" spans="1:10" ht="14">
       <c r="F73" s="9"/>
       <c r="I73" s="8"/>
       <c r="J73" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="74">
+    <row r="74" spans="1:10" ht="14">
       <c r="F74" s="9"/>
       <c r="I74" s="8"/>
       <c r="J74" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="75">
+    <row r="75" spans="1:10" ht="14">
       <c r="F75" s="9"/>
       <c r="I75" s="8"/>
       <c r="J75" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="76">
+    <row r="76" spans="1:10" ht="14">
       <c r="F76" s="9"/>
       <c r="I76" s="8"/>
       <c r="J76" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="77">
+    <row r="77" spans="1:10" ht="14">
       <c r="F77" s="9"/>
       <c r="I77" s="8"/>
       <c r="J77" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="78">
-      <c r="A78" s="8" t="n">
+    <row r="78" spans="1:10" ht="14">
+      <c r="A78" s="8">
         <v>70</v>
       </c>
       <c r="F78" s="9"/>
       <c r="I78" s="8"/>
       <c r="J78" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="79">
-      <c r="A79" s="8" t="n">
+    <row r="79" spans="1:10" ht="14">
+      <c r="A79" s="8">
         <v>71</v>
       </c>
       <c r="F79" s="9"/>
       <c r="I79" s="8"/>
       <c r="J79" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="80">
-      <c r="A80" s="15" t="n">
+    <row r="80" spans="1:10" ht="14">
+      <c r="A80" s="15">
         <v>72</v>
       </c>
       <c r="F80" s="9"/>
       <c r="I80" s="8"/>
       <c r="J80" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="81">
-      <c r="A81" s="8" t="n">
+    <row r="81" spans="1:10" ht="14">
+      <c r="A81" s="8">
         <v>73</v>
       </c>
       <c r="F81" s="9"/>
       <c r="I81" s="8"/>
       <c r="J81" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="82">
-      <c r="A82" s="8" t="n">
+    <row r="82" spans="1:10" ht="14">
+      <c r="A82" s="8">
         <v>74</v>
       </c>
       <c r="F82" s="9"/>
       <c r="I82" s="8"/>
       <c r="J82" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="83">
-      <c r="A83" s="8" t="n">
+    <row r="83" spans="1:10" ht="14">
+      <c r="A83" s="8">
         <v>75</v>
       </c>
       <c r="F83" s="9"/>
       <c r="I83" s="8"/>
       <c r="J83" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="84">
-      <c r="A84" s="8" t="n">
+    <row r="84" spans="1:10" ht="14">
+      <c r="A84" s="8">
         <v>76</v>
       </c>
       <c r="F84" s="9"/>
       <c r="I84" s="8"/>
       <c r="J84" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="85">
-      <c r="A85" s="8" t="n">
+    <row r="85" spans="1:10" ht="14">
+      <c r="A85" s="8">
         <v>77</v>
       </c>
       <c r="F85" s="9"/>
       <c r="I85" s="8"/>
       <c r="J85" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="86">
-      <c r="A86" s="8" t="n">
+    <row r="86" spans="1:10" ht="14">
+      <c r="A86" s="8">
         <v>78</v>
       </c>
       <c r="F86" s="9"/>
       <c r="I86" s="8"/>
       <c r="J86" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="87">
-      <c r="A87" s="8" t="n">
+    <row r="87" spans="1:10" ht="14">
+      <c r="A87" s="8">
         <v>79</v>
       </c>
       <c r="F87" s="9"/>
       <c r="I87" s="8"/>
       <c r="J87" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="88">
-      <c r="A88" s="8" t="n">
+    <row r="88" spans="1:10" ht="14">
+      <c r="A88" s="8">
         <v>80</v>
       </c>
       <c r="F88" s="9"/>
       <c r="I88" s="8"/>
       <c r="J88" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="89">
-      <c r="A89" s="8" t="n">
+    <row r="89" spans="1:10" ht="14">
+      <c r="A89" s="8">
         <v>81</v>
       </c>
       <c r="F89" s="9"/>
       <c r="I89" s="8"/>
       <c r="J89" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="90">
-      <c r="A90" s="8" t="n">
+    <row r="90" spans="1:10" ht="14">
+      <c r="A90" s="8">
         <v>82</v>
       </c>
       <c r="F90" s="9"/>
       <c r="I90" s="8"/>
       <c r="J90" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="91">
-      <c r="A91" s="8" t="n">
+    <row r="91" spans="1:10" ht="14">
+      <c r="A91" s="8">
         <v>83</v>
       </c>
       <c r="F91" s="9"/>
@@ -2153,37 +2434,28 @@
       <c r="J91" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16380" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Data" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Daily Log" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Ark3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Project Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily Log" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -218,9 +217,6 @@
     <t>US13: Skapa en Cloud App Studio app anpassad för Apple Retina skärmar</t>
   </si>
   <si>
-    <t>Setup baseproject, git structure</t>
-  </si>
-  <si>
     <t>US14 :Create ”Base Android Activitys” Android</t>
   </si>
   <si>
@@ -228,76 +224,62 @@
   </si>
   <si>
     <t>US16:Create ”Class Owerview” Android/ClassDiagram</t>
+  </si>
+  <si>
+    <t>US17: Setup baseproject, git structure for Android App</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="YYYY/MM/DD" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF666666"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00666666"/>
-      <sz val="8.8"/>
     </font>
   </fonts>
   <fills count="3">
@@ -309,136 +291,129 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="22">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -497,13 +472,26 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -519,11 +507,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr descr="" id="0" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -543,158 +531,434 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="false" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C18" activeCellId="0" pane="topLeft" sqref="C18"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.84705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="53.4862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="32.0705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.84705882352941"/>
+    <col min="1" max="1" width="8.85546875"/>
+    <col min="2" max="2" width="32"/>
+    <col min="3" max="3" width="53.42578125"/>
+    <col min="4" max="5" width="32"/>
+    <col min="6" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="20.75" outlineLevel="0" r="6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="1"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="8">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="9">
-      <c r="A9" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>41001</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="10">
-      <c r="A10" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="11">
-      <c r="A11" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="30" outlineLevel="0" r="12">
-      <c r="A12" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B7:C7"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK91"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A19" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D44" activeCellId="0" pane="topLeft" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="8" width="6.41176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="14.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="9" width="12.9686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="45.0392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="8" width="13.556862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="52.0392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="18.2156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="10" width="8.5921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="8" width="9.32549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="10" width="9.32549019607843"/>
+    <col min="1" max="1" width="6.42578125" style="8"/>
+    <col min="2" max="2" width="14.85546875" style="9"/>
+    <col min="3" max="3" width="13" style="9"/>
+    <col min="4" max="4" width="45" style="10"/>
+    <col min="5" max="5" width="14.28515625" style="10"/>
+    <col min="6" max="6" width="13.5703125" style="8"/>
+    <col min="7" max="7" width="52" style="10"/>
+    <col min="8" max="8" width="18.140625" style="10"/>
+    <col min="9" max="9" width="8.5703125" style="10"/>
+    <col min="10" max="10" width="9.28515625" style="8"/>
+    <col min="11" max="1025" width="9.28515625" style="10"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="41.75" outlineLevel="0" r="1" s="10">
+    <row r="1" spans="1:9" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
@@ -723,11 +987,11 @@
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="2" s="10">
-      <c r="A2" s="8" t="n">
+    <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="9">
         <v>41001</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -739,7 +1003,7 @@
       <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="9">
         <v>41003</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -749,11 +1013,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3" s="10">
-      <c r="A3" s="8" t="n">
+    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="9">
         <v>41001</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -765,7 +1029,7 @@
       <c r="E3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="9">
         <v>41057</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -775,11 +1039,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="4" s="10">
-      <c r="A4" s="8" t="n">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="n">
+      <c r="B4" s="9">
         <v>41001</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -791,7 +1055,7 @@
       <c r="E4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="9">
         <v>41003</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -801,11 +1065,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="5" s="10">
-      <c r="A5" s="8" t="n">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B5" s="9">
         <v>41001</v>
       </c>
       <c r="C5" s="11" t="s">
@@ -817,7 +1081,7 @@
       <c r="E5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="9">
         <v>41019</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -827,11 +1091,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="6" s="10">
-      <c r="A6" s="8" t="n">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B6" s="9">
         <v>41001</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -843,7 +1107,7 @@
       <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>41009</v>
       </c>
       <c r="H6" s="10" t="s">
@@ -853,11 +1117,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7" s="10">
-      <c r="A7" s="8" t="n">
+    <row r="7" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B7" s="9">
         <v>41001</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -869,7 +1133,7 @@
       <c r="E7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>41003</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -879,11 +1143,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="8" s="10">
-      <c r="A8" s="8" t="n">
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B8" s="9">
         <v>41001</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -895,7 +1159,7 @@
       <c r="E8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>41003</v>
       </c>
       <c r="H8" s="10" t="s">
@@ -905,11 +1169,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="9" s="10">
-      <c r="A9" s="8" t="n">
+    <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B9" s="9">
         <v>41001</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -921,7 +1185,7 @@
       <c r="E9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="9">
         <v>41003</v>
       </c>
       <c r="H9" s="10" t="s">
@@ -931,11 +1195,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="10" s="10">
-      <c r="A10" s="8" t="n">
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B10" s="9">
         <v>41009</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -947,7 +1211,7 @@
       <c r="E10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>41010</v>
       </c>
       <c r="H10" s="10" t="s">
@@ -957,11 +1221,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="11" s="10">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="n">
+      <c r="B11" s="9">
         <v>41009</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -973,7 +1237,7 @@
       <c r="E11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="9">
         <v>41010</v>
       </c>
       <c r="H11" s="10" t="s">
@@ -983,11 +1247,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="12" s="10">
-      <c r="A12" s="8" t="n">
+    <row r="12" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="n">
+      <c r="B12" s="9">
         <v>41009</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -999,7 +1263,7 @@
       <c r="E12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>41000</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -1009,11 +1273,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="13" s="10">
-      <c r="A13" s="8" t="n">
+    <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="9">
         <v>41009</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1025,7 +1289,7 @@
       <c r="E13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="9">
         <v>41010</v>
       </c>
       <c r="H13" s="10" t="s">
@@ -1035,11 +1299,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="14" s="10">
-      <c r="A14" s="8" t="n">
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="n">
+      <c r="B14" s="9">
         <v>41009</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1051,7 +1315,7 @@
       <c r="E14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>41010</v>
       </c>
       <c r="H14" s="10" t="s">
@@ -1061,37 +1325,37 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="15" s="14">
-      <c r="A15" s="12" t="n">
+    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="20">
         <v>41009</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13" t="n">
+      <c r="F15" s="20">
         <v>41014</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="16" s="10">
-      <c r="A16" s="8" t="n">
+      <c r="H15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="n">
+      <c r="B16" s="9">
         <v>41009</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1103,7 +1367,7 @@
       <c r="E16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="9">
         <v>41014</v>
       </c>
       <c r="H16" s="10" t="s">
@@ -1113,38 +1377,37 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="17" s="10">
-      <c r="A17" s="12" t="n">
+    <row r="17" spans="1:10" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="20">
         <v>41001</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="13" t="n">
+      <c r="F17" s="20">
         <v>41014</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="18" s="10">
-      <c r="A18" s="8" t="n">
+      <c r="H17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="n">
+      <c r="B18" s="9">
         <v>41009</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -1156,7 +1419,7 @@
       <c r="E18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="9">
         <v>41014</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -1166,37 +1429,37 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="19" s="10">
-      <c r="A19" s="8" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9" t="n">
+    <row r="19" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
         <v>41009</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="23">
         <v>41028</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="20" s="10">
-      <c r="A20" s="8" t="n">
+    <row r="20" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="n">
+      <c r="B20" s="9">
         <v>41009</v>
       </c>
       <c r="C20" s="9" t="s">
@@ -1208,7 +1471,7 @@
       <c r="E20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="9">
         <v>41042</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -1218,11 +1481,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="21" s="10">
-      <c r="A21" s="8" t="n">
+    <row r="21" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="n">
+      <c r="B21" s="9">
         <v>41009</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1234,7 +1497,7 @@
       <c r="E21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="9">
         <v>41056</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -1244,11 +1507,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="22" s="10">
-      <c r="A22" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9" t="n">
+    <row r="22" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
         <v>41009</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -1260,7 +1523,7 @@
       <c r="E22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="9">
         <v>41063</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -1270,11 +1533,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="23" s="10">
-      <c r="A23" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="9" t="n">
+    <row r="23" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
         <v>41009</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -1286,7 +1549,7 @@
       <c r="E23" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="9">
         <v>41063</v>
       </c>
       <c r="H23" s="10" t="s">
@@ -1296,216 +1559,216 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="24" s="10">
-      <c r="A24" s="15" t="n">
+    <row r="24" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="n">
+      <c r="B24" s="9">
         <v>41009</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="9">
         <v>41011</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="25" s="10">
-      <c r="A25" s="8" t="n">
+      <c r="G24" s="14"/>
+      <c r="H24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="n">
+      <c r="B25" s="9">
         <v>41012</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="9">
         <v>41012</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26" s="10">
-      <c r="A26" s="8" t="n">
+      <c r="G25" s="14"/>
+      <c r="H25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="n">
+      <c r="B26" s="9">
         <v>41012</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="9">
         <v>41014</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="27" s="10">
-      <c r="A27" s="8" t="n">
+      <c r="G26" s="14"/>
+      <c r="H26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="n">
+      <c r="B27" s="9">
         <v>41014</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="9">
         <v>41015</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="28" s="10">
-      <c r="A28" s="8" t="n">
+      <c r="G27" s="14"/>
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="n">
+      <c r="B28" s="9">
         <v>41015</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="9">
         <v>41016</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="29" s="10">
-      <c r="A29" s="8" t="n">
+      <c r="G28" s="14"/>
+      <c r="H28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="n">
+      <c r="B29" s="9">
         <v>41017</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="9">
         <v>41018</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="30" s="10">
-      <c r="A30" s="8" t="n">
+      <c r="G29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="n">
+      <c r="B30" s="9">
         <v>41017</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="9">
         <v>41018</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="31">
-      <c r="A31" s="8" t="n">
+      <c r="G30" s="14"/>
+      <c r="H30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>30</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="12"/>
       <c r="J31" s="10"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="32" s="10">
-      <c r="A32" s="8" t="n">
+    <row r="32" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="n">
+      <c r="B32" s="9">
         <v>41017</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -1514,7 +1777,7 @@
       <c r="E32" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="9">
         <v>41022</v>
       </c>
       <c r="H32" s="10" t="s">
@@ -1524,11 +1787,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="33" s="10">
-      <c r="A33" s="15" t="n">
+    <row r="33" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="n">
+      <c r="B33" s="9">
         <v>41017</v>
       </c>
       <c r="C33" s="9" t="s">
@@ -1540,7 +1803,7 @@
       <c r="E33" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="9">
         <v>41022</v>
       </c>
       <c r="H33" s="10" t="s">
@@ -1550,11 +1813,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="34" s="10">
-      <c r="A34" s="8" t="n">
+    <row r="34" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="9">
         <v>41017</v>
       </c>
       <c r="C34" s="9" t="s">
@@ -1566,7 +1829,7 @@
       <c r="E34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="9">
         <v>41018</v>
       </c>
       <c r="H34" s="10" t="s">
@@ -1576,11 +1839,11 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="35" s="10">
-      <c r="A35" s="8" t="n">
+    <row r="35" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="n">
+      <c r="B35" s="9">
         <v>41017</v>
       </c>
       <c r="C35" s="9" t="s">
@@ -1592,7 +1855,7 @@
       <c r="E35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="9">
         <v>41019</v>
       </c>
       <c r="H35" s="10" t="s">
@@ -1602,11 +1865,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="36" s="10">
-      <c r="A36" s="8" t="n">
+    <row r="36" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="n">
+      <c r="B36" s="9">
         <v>41017</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -1626,11 +1889,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="37" s="10">
-      <c r="A37" s="8" t="n">
+    <row r="37" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="n">
+      <c r="B37" s="9">
         <v>41017</v>
       </c>
       <c r="C37" s="9" t="s">
@@ -1650,11 +1913,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="38" s="10">
-      <c r="A38" s="8" t="n">
+    <row r="38" spans="1:10" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="n">
+      <c r="B38" s="9">
         <v>41017</v>
       </c>
       <c r="C38" s="9" t="s">
@@ -1666,7 +1929,9 @@
       <c r="E38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="9">
+        <v>41039</v>
+      </c>
       <c r="H38" s="10" t="s">
         <v>21</v>
       </c>
@@ -1674,11 +1939,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="39" s="10">
-      <c r="A39" s="8" t="n">
+    <row r="39" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="n">
+      <c r="B39" s="9">
         <v>41017</v>
       </c>
       <c r="C39" s="9" t="s">
@@ -1690,7 +1955,9 @@
       <c r="E39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="9">
+        <v>41033</v>
+      </c>
       <c r="H39" s="10" t="s">
         <v>21</v>
       </c>
@@ -1698,11 +1965,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="40" s="10">
-      <c r="A40" s="8" t="n">
+    <row r="40" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="n">
+      <c r="B40" s="9">
         <v>41017</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -1714,7 +1981,9 @@
       <c r="E40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="9">
+        <v>41051</v>
+      </c>
       <c r="H40" s="10" t="s">
         <v>21</v>
       </c>
@@ -1722,11 +1991,11 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="28.35" outlineLevel="0" r="41" s="10">
-      <c r="A41" s="8" t="n">
+    <row r="41" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="9" t="n">
+      <c r="B41" s="9">
         <v>41017</v>
       </c>
       <c r="C41" s="9" t="s">
@@ -1738,7 +2007,9 @@
       <c r="E41" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="9">
+        <v>41047</v>
+      </c>
       <c r="H41" s="10" t="s">
         <v>21</v>
       </c>
@@ -1746,47 +2017,51 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="42" s="10">
-      <c r="A42" s="8" t="n">
+    <row r="42" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="n">
+      <c r="B42" s="9">
         <v>41018</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="9">
+        <v>41025</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>41028</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="9"/>
-      <c r="H42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="43" s="10">
-      <c r="A43" s="8" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" s="9" t="n">
-        <v>41028</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9">
+        <v>41044</v>
+      </c>
       <c r="H43" s="10" t="s">
         <v>21</v>
       </c>
@@ -1794,23 +2069,25 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="44" s="10">
-      <c r="A44" s="15" t="n">
+    <row r="44" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="n">
+      <c r="B44" s="9">
         <v>41028</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="9">
+        <v>41033</v>
+      </c>
       <c r="H44" s="10" t="s">
         <v>21</v>
       </c>
@@ -1818,23 +2095,25 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="45" s="10">
-      <c r="A45" s="8" t="n">
+    <row r="45" spans="1:10" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="n">
+      <c r="B45" s="9">
         <v>41028</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="9">
+        <v>41025</v>
+      </c>
       <c r="H45" s="10" t="s">
         <v>21</v>
       </c>
@@ -1842,310 +2121,310 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" s="9"/>
       <c r="I46" s="8"/>
       <c r="J46" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F47" s="9"/>
       <c r="I47" s="8"/>
       <c r="J47" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F48" s="9"/>
       <c r="I48" s="8"/>
       <c r="J48" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="49">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F49" s="9"/>
       <c r="I49" s="8"/>
       <c r="J49" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="50">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F50" s="9"/>
       <c r="I50" s="8"/>
       <c r="J50" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="51">
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="18"/>
       <c r="J51" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="52">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="18"/>
       <c r="J52" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="53">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="18"/>
       <c r="J53" s="10"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="54" s="10">
-      <c r="A54" s="15"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="55">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
+    <row r="54" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="18"/>
       <c r="J55" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="56">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="18"/>
       <c r="J56" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="57">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="17"/>
       <c r="J57" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="58">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F58" s="9"/>
       <c r="I58" s="8"/>
       <c r="J58" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="59">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F59" s="9"/>
       <c r="I59" s="8"/>
       <c r="J59" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="60">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F60" s="9"/>
       <c r="I60" s="8"/>
       <c r="J60" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="61">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F61" s="9"/>
       <c r="I61" s="8"/>
       <c r="J61" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="62">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F62" s="9"/>
       <c r="I62" s="8"/>
       <c r="J62" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="63">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F63" s="9"/>
       <c r="I63" s="8"/>
       <c r="J63" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="64">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F64" s="9"/>
       <c r="I64" s="8"/>
       <c r="J64" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="65">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F65" s="9"/>
       <c r="I65" s="8"/>
       <c r="J65" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="66">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F66" s="9"/>
       <c r="I66" s="8"/>
       <c r="J66" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="67">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F67" s="9"/>
       <c r="I67" s="8"/>
       <c r="J67" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="68">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F68" s="9"/>
       <c r="I68" s="8"/>
       <c r="J68" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="69">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F69" s="9"/>
       <c r="I69" s="8"/>
       <c r="J69" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="70">
-      <c r="A70" s="15"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="12"/>
       <c r="F70" s="9"/>
       <c r="I70" s="8"/>
       <c r="J70" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="71">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F71" s="9"/>
       <c r="I71" s="8"/>
       <c r="J71" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="72">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F72" s="9"/>
       <c r="I72" s="8"/>
       <c r="J72" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="73">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F73" s="9"/>
       <c r="I73" s="8"/>
       <c r="J73" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="74">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F74" s="9"/>
       <c r="I74" s="8"/>
       <c r="J74" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F75" s="9"/>
       <c r="I75" s="8"/>
       <c r="J75" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="76">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F76" s="9"/>
       <c r="I76" s="8"/>
       <c r="J76" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.75" outlineLevel="0" r="77">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F77" s="9"/>
       <c r="I77" s="8"/>
       <c r="J77" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="78">
-      <c r="A78" s="8" t="n">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="8">
         <v>70</v>
       </c>
       <c r="F78" s="9"/>
       <c r="I78" s="8"/>
       <c r="J78" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="79">
-      <c r="A79" s="8" t="n">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>71</v>
       </c>
       <c r="F79" s="9"/>
       <c r="I79" s="8"/>
       <c r="J79" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="80">
-      <c r="A80" s="15" t="n">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
         <v>72</v>
       </c>
       <c r="F80" s="9"/>
       <c r="I80" s="8"/>
       <c r="J80" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="81">
-      <c r="A81" s="8" t="n">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>73</v>
       </c>
       <c r="F81" s="9"/>
       <c r="I81" s="8"/>
       <c r="J81" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="82">
-      <c r="A82" s="8" t="n">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="8">
         <v>74</v>
       </c>
       <c r="F82" s="9"/>
       <c r="I82" s="8"/>
       <c r="J82" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="83">
-      <c r="A83" s="8" t="n">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>75</v>
       </c>
       <c r="F83" s="9"/>
       <c r="I83" s="8"/>
       <c r="J83" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="84">
-      <c r="A84" s="8" t="n">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="8">
         <v>76</v>
       </c>
       <c r="F84" s="9"/>
       <c r="I84" s="8"/>
       <c r="J84" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="85">
-      <c r="A85" s="8" t="n">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>77</v>
       </c>
       <c r="F85" s="9"/>
       <c r="I85" s="8"/>
       <c r="J85" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="86">
-      <c r="A86" s="8" t="n">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="8">
         <v>78</v>
       </c>
       <c r="F86" s="9"/>
       <c r="I86" s="8"/>
       <c r="J86" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="87">
-      <c r="A87" s="8" t="n">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>79</v>
       </c>
       <c r="F87" s="9"/>
       <c r="I87" s="8"/>
       <c r="J87" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="88">
-      <c r="A88" s="8" t="n">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="8">
         <v>80</v>
       </c>
       <c r="F88" s="9"/>
       <c r="I88" s="8"/>
       <c r="J88" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="89">
-      <c r="A89" s="8" t="n">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>81</v>
       </c>
       <c r="F89" s="9"/>
       <c r="I89" s="8"/>
       <c r="J89" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="90">
-      <c r="A90" s="8" t="n">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="8">
         <v>82</v>
       </c>
       <c r="F90" s="9"/>
       <c r="I90" s="8"/>
       <c r="J90" s="10"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="91">
-      <c r="A91" s="8" t="n">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>83</v>
       </c>
       <c r="F91" s="9"/>
@@ -2153,37 +2432,23 @@
       <c r="J91" s="10"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.84705882352941"/>
+    <col min="1" max="1025" width="8.85546875"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35720" windowHeight="23720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="18240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Data" sheetId="1" r:id="rId1"/>
@@ -238,9 +238,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -288,18 +287,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -331,9 +324,6 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -345,14 +335,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -360,27 +350,15 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -388,10 +366,10 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -401,6 +379,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,6 +469,11 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -848,99 +846,99 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:5" ht="20">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="20">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="20">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="20">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>41001</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -960,1481 +958,1481 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="3" width="10.83203125" style="9"/>
-    <col min="4" max="5" width="10.83203125" style="10"/>
-    <col min="6" max="6" width="10.83203125" style="8"/>
-    <col min="7" max="9" width="10.83203125" style="10"/>
-    <col min="10" max="10" width="10.83203125" style="8"/>
-    <col min="11" max="1025" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.85546875" style="7"/>
+    <col min="2" max="3" width="10.85546875" style="8"/>
+    <col min="4" max="5" width="10.85546875" style="9"/>
+    <col min="6" max="6" width="10.85546875" style="7"/>
+    <col min="7" max="9" width="10.85546875" style="9"/>
+    <col min="10" max="10" width="10.85546875" style="7"/>
+    <col min="11" max="1025" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="10" customFormat="1" ht="56">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="10" customFormat="1" ht="56">
-      <c r="A2" s="8">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>41001</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>41003</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" ht="70">
-      <c r="A3" s="8">
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>41001</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>41057</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="112">
-      <c r="A4" s="8">
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>41001</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>41003</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="126">
-      <c r="A5" s="8">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>41001</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>41019</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="28">
-      <c r="A6" s="8">
+    <row r="6" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>41001</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>41009</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="42">
-      <c r="A7" s="8">
+    <row r="7" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>41001</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>41003</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="70">
-      <c r="A8" s="8">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>41001</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>41003</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="56">
-      <c r="A9" s="8">
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>41001</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>41003</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="84">
-      <c r="A10" s="8">
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>41009</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>41010</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="84">
-      <c r="A11" s="8">
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>41009</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>41010</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" ht="56">
-      <c r="A12" s="8">
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>41009</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>41000</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="84">
-      <c r="A13" s="8">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>41009</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>41010</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="70">
-      <c r="A14" s="8">
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>41009</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>41010</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="14" customFormat="1" ht="42">
-      <c r="A15" s="12">
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="20">
         <v>41009</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="20">
         <v>41014</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="H15" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="70">
-      <c r="A16" s="8">
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>41009</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>41014</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="10" customFormat="1" ht="112">
-      <c r="A17" s="12">
+    <row r="17" spans="1:10" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="20">
         <v>41001</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="20">
         <v>41014</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="H17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="10" customFormat="1" ht="28">
-      <c r="A18" s="8">
+    <row r="18" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>41009</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>41014</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="10" customFormat="1" ht="28">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9">
+    <row r="19" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8">
         <v>41009</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>41028</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="10" customFormat="1" ht="28">
-      <c r="A20" s="8">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>41009</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>41042</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="10" customFormat="1" ht="28">
-      <c r="A21" s="8">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>41009</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>41056</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="10" customFormat="1" ht="56">
-      <c r="A22" s="8">
-        <v>21</v>
-      </c>
-      <c r="B22" s="9">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8">
         <v>41009</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>41063</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="10" customFormat="1" ht="56">
-      <c r="A23" s="8">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>41009</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="C23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>41063</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="10" customFormat="1" ht="70">
-      <c r="A24" s="15">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>41009</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="17" t="s">
+      <c r="C24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>41011</v>
       </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="G24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="10" customFormat="1" ht="84">
-      <c r="A25" s="8">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>41012</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>41012</v>
       </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="15" t="s">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="10" customFormat="1" ht="56">
-      <c r="A26" s="8">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>41012</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
+      <c r="C26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>41014</v>
       </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="10" customFormat="1" ht="84">
-      <c r="A27" s="8">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>41014</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="8">
         <v>41015</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="15" t="s">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="10" customFormat="1" ht="84">
-      <c r="A28" s="8">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>41015</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="C28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="8">
         <v>41016</v>
       </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="15" t="s">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="10" customFormat="1" ht="84">
-      <c r="A29" s="8">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>41017</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="C29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="8">
         <v>41018</v>
       </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="15" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="10" customFormat="1" ht="42">
-      <c r="A30" s="8">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>41017</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="17" t="s">
+      <c r="C30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="8">
         <v>41018</v>
       </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="15" t="s">
+      <c r="G30" s="13"/>
+      <c r="H30" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14">
-      <c r="A31" s="8">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="10"/>
-    </row>
-    <row r="32" spans="1:10" s="10" customFormat="1" ht="42">
-      <c r="A32" s="8">
+      <c r="C31" s="12"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>41017</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="10" t="s">
+      <c r="C32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>41022</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="10" customFormat="1" ht="56">
-      <c r="A33" s="15">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>41017</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="8">
         <v>41022</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" ht="28">
-      <c r="A34" s="8">
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>41017</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="C34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="8">
         <v>41018</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="8" t="s">
+      <c r="H34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" ht="42">
-      <c r="A35" s="8">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>41017</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>41019</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="H35" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="70">
-      <c r="A36" s="8">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>41017</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="10" t="s">
+      <c r="C36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="H36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="8" t="s">
+      <c r="F36" s="8"/>
+      <c r="H36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="10" customFormat="1" ht="42">
-      <c r="A37" s="8">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>41017</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="H37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="8" t="s">
+      <c r="F37" s="8"/>
+      <c r="H37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="10" customFormat="1" ht="140">
-      <c r="A38" s="8">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>41017</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="C38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="H38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="F38" s="8"/>
+      <c r="H38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="10" customFormat="1" ht="42">
-      <c r="A39" s="8">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>41017</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="H39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="F39" s="8"/>
+      <c r="H39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" ht="112">
-      <c r="A40" s="8">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>41017</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="H40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="F40" s="8"/>
+      <c r="H40" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="10" customFormat="1" ht="98">
-      <c r="A41" s="8">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>41017</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="H41" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="8" t="s">
+      <c r="F41" s="8"/>
+      <c r="H41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="10" customFormat="1" ht="42">
-      <c r="A42" s="8">
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
         <v>41</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>41018</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="H42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="8" t="s">
+      <c r="F42" s="8"/>
+      <c r="H42" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="10" customFormat="1" ht="84">
-      <c r="A43" s="8">
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
         <v>42</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>41028</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="H43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="8" t="s">
+      <c r="F43" s="8"/>
+      <c r="H43" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="10" customFormat="1" ht="70">
-      <c r="A44" s="15">
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>41028</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="9"/>
-      <c r="H44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="8" t="s">
+      <c r="F44" s="8"/>
+      <c r="H44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="10" customFormat="1" ht="70">
-      <c r="A45" s="8">
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
         <v>44</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>41028</v>
       </c>
-      <c r="C45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="H45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="8" t="s">
+      <c r="F45" s="8"/>
+      <c r="H45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14">
-      <c r="F46" s="9"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="10"/>
-    </row>
-    <row r="47" spans="1:10" ht="14">
-      <c r="F47" s="9"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="10"/>
-    </row>
-    <row r="48" spans="1:10" ht="14">
-      <c r="F48" s="9"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="10"/>
-    </row>
-    <row r="49" spans="1:10" ht="14">
-      <c r="F49" s="9"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="10"/>
-    </row>
-    <row r="50" spans="1:10" ht="14">
-      <c r="F50" s="9"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="10"/>
-    </row>
-    <row r="51" spans="1:10" ht="14">
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="10"/>
-    </row>
-    <row r="52" spans="1:10" ht="14">
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="10"/>
-    </row>
-    <row r="53" spans="1:10" ht="14">
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10" s="10" customFormat="1" ht="14">
-      <c r="A54" s="15"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="21"/>
-    </row>
-    <row r="55" spans="1:10" ht="14">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="1:10" ht="14">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="10"/>
-    </row>
-    <row r="57" spans="1:10" ht="14">
-      <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="J57" s="10"/>
-    </row>
-    <row r="58" spans="1:10" ht="14">
-      <c r="F58" s="9"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="10"/>
-    </row>
-    <row r="59" spans="1:10" ht="14">
-      <c r="F59" s="9"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="10"/>
-    </row>
-    <row r="60" spans="1:10" ht="14">
-      <c r="F60" s="9"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="10"/>
-    </row>
-    <row r="61" spans="1:10" ht="14">
-      <c r="F61" s="9"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="10"/>
-    </row>
-    <row r="62" spans="1:10" ht="14">
-      <c r="F62" s="9"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="10"/>
-    </row>
-    <row r="63" spans="1:10" ht="14">
-      <c r="F63" s="9"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="10"/>
-    </row>
-    <row r="64" spans="1:10" ht="14">
-      <c r="F64" s="9"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="1:10" ht="14">
-      <c r="F65" s="9"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="10"/>
-    </row>
-    <row r="66" spans="1:10" ht="14">
-      <c r="F66" s="9"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="10"/>
-    </row>
-    <row r="67" spans="1:10" ht="14">
-      <c r="F67" s="9"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="10"/>
-    </row>
-    <row r="68" spans="1:10" ht="14">
-      <c r="F68" s="9"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="10"/>
-    </row>
-    <row r="69" spans="1:10" ht="14">
-      <c r="F69" s="9"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="10"/>
-    </row>
-    <row r="70" spans="1:10" ht="14">
-      <c r="A70" s="15"/>
-      <c r="F70" s="9"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="10"/>
-    </row>
-    <row r="71" spans="1:10" ht="14">
-      <c r="F71" s="9"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:10" ht="14">
-      <c r="F72" s="9"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="10"/>
-    </row>
-    <row r="73" spans="1:10" ht="14">
-      <c r="F73" s="9"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="10"/>
-    </row>
-    <row r="74" spans="1:10" ht="14">
-      <c r="F74" s="9"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="10"/>
-    </row>
-    <row r="75" spans="1:10" ht="14">
-      <c r="F75" s="9"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="1:10" ht="14">
-      <c r="F76" s="9"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="10"/>
-    </row>
-    <row r="77" spans="1:10" ht="14">
-      <c r="F77" s="9"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="10"/>
-    </row>
-    <row r="78" spans="1:10" ht="14">
-      <c r="A78" s="8">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F46" s="8"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F47" s="8"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F48" s="8"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F49" s="8"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F50" s="8"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F58" s="8"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F59" s="8"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="9"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F60" s="8"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="9"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F61" s="8"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="9"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F62" s="8"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="9"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F63" s="8"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="9"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F64" s="8"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="9"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F65" s="8"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="9"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F66" s="8"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="9"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F67" s="8"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F68" s="8"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F69" s="8"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="11"/>
+      <c r="F70" s="8"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F71" s="8"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="9"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F72" s="8"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="9"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F73" s="8"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="9"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F74" s="8"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="9"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F75" s="8"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="9"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F76" s="8"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="9"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F77" s="8"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="9"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
         <v>70</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="10"/>
-    </row>
-    <row r="79" spans="1:10" ht="14">
-      <c r="A79" s="8">
+      <c r="F78" s="8"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="9"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
         <v>71</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="10"/>
-    </row>
-    <row r="80" spans="1:10" ht="14">
-      <c r="A80" s="15">
+      <c r="F79" s="8"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="9"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
         <v>72</v>
       </c>
-      <c r="F80" s="9"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="10"/>
-    </row>
-    <row r="81" spans="1:10" ht="14">
-      <c r="A81" s="8">
+      <c r="F80" s="8"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="9"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
         <v>73</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="10"/>
-    </row>
-    <row r="82" spans="1:10" ht="14">
-      <c r="A82" s="8">
+      <c r="F81" s="8"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="9"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
         <v>74</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="10"/>
-    </row>
-    <row r="83" spans="1:10" ht="14">
-      <c r="A83" s="8">
+      <c r="F82" s="8"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="9"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
         <v>75</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="10"/>
-    </row>
-    <row r="84" spans="1:10" ht="14">
-      <c r="A84" s="8">
+      <c r="F83" s="8"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="9"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
         <v>76</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="10"/>
-    </row>
-    <row r="85" spans="1:10" ht="14">
-      <c r="A85" s="8">
+      <c r="F84" s="8"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="9"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
         <v>77</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="10"/>
-    </row>
-    <row r="86" spans="1:10" ht="14">
-      <c r="A86" s="8">
+      <c r="F85" s="8"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="9"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
         <v>78</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="10"/>
-    </row>
-    <row r="87" spans="1:10" ht="14">
-      <c r="A87" s="8">
+      <c r="F86" s="8"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="9"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
         <v>79</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="10"/>
-    </row>
-    <row r="88" spans="1:10" ht="14">
-      <c r="A88" s="8">
+      <c r="F87" s="8"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="9"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
         <v>80</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="10"/>
-    </row>
-    <row r="89" spans="1:10" ht="14">
-      <c r="A89" s="8">
+      <c r="F88" s="8"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="9"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
         <v>81</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="10"/>
-    </row>
-    <row r="90" spans="1:10" ht="14">
-      <c r="A90" s="8">
+      <c r="F89" s="8"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="9"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
         <v>82</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="10"/>
-    </row>
-    <row r="91" spans="1:10" ht="14">
-      <c r="A91" s="8">
+      <c r="F90" s="8"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="9"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
         <v>83</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="10"/>
+      <c r="F91" s="8"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2449,7 +2447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>

--- a/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
+++ b/Documents/0 Project Managment/Project Daily Log - 2012.xlsx
@@ -380,9 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -394,6 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,13 +482,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1521000</xdr:colOff>
+      <xdr:colOff>235125</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>163440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2257425</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
@@ -505,8 +505,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4393440" y="163440"/>
-          <a:ext cx="2385720" cy="621720"/>
+          <a:off x="2283000" y="163440"/>
+          <a:ext cx="2022300" cy="631500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,10 +843,15 @@
   <dimension ref="A3:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
@@ -878,10 +883,10 @@
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
@@ -956,24 +961,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK91"/>
+  <dimension ref="A1:AMK90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="7"/>
-    <col min="2" max="3" width="10.85546875" style="8"/>
-    <col min="4" max="5" width="10.85546875" style="9"/>
-    <col min="6" max="6" width="10.85546875" style="7"/>
-    <col min="7" max="9" width="10.85546875" style="9"/>
+    <col min="1" max="1" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="31" style="9" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="9"/>
+    <col min="8" max="8" width="22.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="9" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" style="7"/>
     <col min="11" max="1025" width="10.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1028,7 +1037,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1051,10 +1060,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1103,10 +1112,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1132,7 +1141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1210,7 +1219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1236,7 +1245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1262,7 +1271,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1314,7 +1323,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1340,33 +1349,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
+    <row r="15" spans="1:9" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="19">
         <v>41009</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="21" t="s">
+      <c r="C15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>41014</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="H15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1392,33 +1401,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+    <row r="17" spans="1:9" s="20" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <v>41001</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="19">
         <v>41014</v>
       </c>
-      <c r="H17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="H17" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1444,7 +1453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1467,10 +1476,10 @@
         <v>21</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1493,10 +1502,10 @@
         <v>21</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1522,7 +1531,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1571,10 +1580,10 @@
         <v>21</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1601,7 +1610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1655,7 +1664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1682,7 +1691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1763,34 +1772,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
         <v>31</v>
+      </c>
+      <c r="B31" s="8">
+        <v>41017</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="8">
+        <v>41022</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>32</v>
       </c>
       <c r="B32" s="8">
         <v>41017</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F32" s="8">
         <v>41022</v>
@@ -1799,12 +1821,12 @@
         <v>21</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
-        <v>32</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>33</v>
       </c>
       <c r="B33" s="8">
         <v>41017</v>
@@ -1813,24 +1835,24 @@
         <v>18</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="F33" s="8">
-        <v>41022</v>
+        <v>41018</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="8">
         <v>41017</v>
@@ -1839,13 +1861,13 @@
         <v>18</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F34" s="8">
-        <v>41018</v>
+        <v>41019</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>21</v>
@@ -1854,9 +1876,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="8">
         <v>41017</v>
@@ -1865,24 +1887,22 @@
         <v>18</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="8">
-        <v>41019</v>
-      </c>
+      <c r="F35" s="8"/>
       <c r="H35" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="8">
         <v>41017</v>
@@ -1891,7 +1911,7 @@
         <v>18</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>24</v>
@@ -1901,12 +1921,12 @@
         <v>21</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="8">
         <v>41017</v>
@@ -1915,7 +1935,7 @@
         <v>18</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>24</v>
@@ -1925,12 +1945,12 @@
         <v>21</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="8">
         <v>41017</v>
@@ -1939,7 +1959,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>24</v>
@@ -1949,12 +1969,12 @@
         <v>21</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="8">
         <v>41017</v>
@@ -1963,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>24</v>
@@ -1973,12 +1993,12 @@
         <v>21</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="9" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="8">
         <v>41017</v>
@@ -1987,7 +2007,7 @@
         <v>18</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>24</v>
@@ -2000,18 +2020,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="8">
-        <v>41017</v>
+        <v>41018</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>24</v>
@@ -2021,24 +2041,24 @@
         <v>21</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="8">
+        <v>41028</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" s="8">
-        <v>41018</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="F42" s="8"/>
       <c r="H42" s="9" t="s">
@@ -2048,9 +2068,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="9" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>42</v>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>43</v>
       </c>
       <c r="B43" s="8">
         <v>41028</v>
@@ -2059,22 +2079,22 @@
         <v>18</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43" s="8"/>
       <c r="H43" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
-        <v>43</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>44</v>
       </c>
       <c r="B44" s="8">
         <v>41028</v>
@@ -2083,42 +2103,23 @@
         <v>18</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F44" s="8"/>
       <c r="H44" s="9" t="s">
         <v>21</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="9" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8">
-        <v>41028</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F45" s="8"/>
-      <c r="H45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" s="8"/>
@@ -2141,8 +2142,14 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F50" s="8"/>
-      <c r="I50" s="7"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2167,7 +2174,8 @@
       <c r="I52" s="17"/>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
       <c r="B53" s="14"/>
       <c r="C53" s="15"/>
       <c r="D53" s="16"/>
@@ -2176,10 +2184,8 @@
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="9"/>
-    </row>
-    <row r="54" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="14"/>
       <c r="C54" s="15"/>
       <c r="D54" s="16"/>
@@ -2188,6 +2194,7 @@
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="17"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="14"/>
@@ -2204,17 +2211,11 @@
       <c r="B56" s="14"/>
       <c r="C56" s="15"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="17"/>
       <c r="J56" s="9"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B57" s="14"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="16"/>
+      <c r="F57" s="8"/>
+      <c r="I57" s="7"/>
       <c r="J57" s="9"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -2273,12 +2274,12 @@
       <c r="J68" s="9"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="11"/>
       <c r="F69" s="8"/>
       <c r="I69" s="7"/>
       <c r="J69" s="9"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
       <c r="F70" s="8"/>
       <c r="I70" s="7"/>
       <c r="J70" s="9"/>
@@ -2314,29 +2315,32 @@
       <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>70</v>
+      </c>
       <c r="F77" s="8"/>
       <c r="I77" s="7"/>
       <c r="J77" s="9"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F78" s="8"/>
       <c r="I78" s="7"/>
       <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>71</v>
+      <c r="A79" s="11">
+        <v>72</v>
       </c>
       <c r="F79" s="8"/>
       <c r="I79" s="7"/>
       <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="11">
-        <v>72</v>
+      <c r="A80" s="7">
+        <v>73</v>
       </c>
       <c r="F80" s="8"/>
       <c r="I80" s="7"/>
@@ -2344,7 +2348,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F81" s="8"/>
       <c r="I81" s="7"/>
@@ -2352,7 +2356,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F82" s="8"/>
       <c r="I82" s="7"/>
@@ -2360,7 +2364,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="8"/>
       <c r="I83" s="7"/>
@@ -2368,7 +2372,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F84" s="8"/>
       <c r="I84" s="7"/>
@@ -2376,7 +2380,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F85" s="8"/>
       <c r="I85" s="7"/>
@@ -2384,7 +2388,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F86" s="8"/>
       <c r="I86" s="7"/>
@@ -2392,7 +2396,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F87" s="8"/>
       <c r="I87" s="7"/>
@@ -2400,7 +2404,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F88" s="8"/>
       <c r="I88" s="7"/>
@@ -2408,7 +2412,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F89" s="8"/>
       <c r="I89" s="7"/>
@@ -2416,19 +2420,11 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F90" s="8"/>
       <c r="I90" s="7"/>
       <c r="J90" s="9"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="7">
-        <v>83</v>
-      </c>
-      <c r="F91" s="8"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
